--- a/geneInfo/Gene_list_vision.xlsx
+++ b/geneInfo/Gene_list_vision.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L033060262053\Documents\Research projects\Tail_photoreception\tissue_profiling\geneInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="280" windowWidth="28280" windowHeight="17820" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1098" yWindow="282" windowWidth="28278" windowHeight="17820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Photo vis cycle" sheetId="1" r:id="rId1"/>
@@ -670,7 +675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -734,7 +739,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +749,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +827,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -886,6 +897,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -928,6 +945,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1252,23 +1277,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="29.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.84765625" style="13"/>
+    <col min="2" max="2" width="29.6484375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="30.1484375" style="13" customWidth="1"/>
     <col min="4" max="4" width="27" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="13"/>
+    <col min="5" max="16384" width="10.84765625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1281,7 +1306,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
@@ -1294,7 +1319,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="28">
+    <row r="3" spans="1:6" s="14" customFormat="1" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
@@ -1307,7 +1332,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="15" customFormat="1">
+    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
         <v>106</v>
       </c>
@@ -1321,7 +1346,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="15" customFormat="1">
+    <row r="5" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
@@ -1335,46 +1360,46 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+      <c r="A7" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="28">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+      <c r="A8" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="28">
+    <row r="9" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A9" s="11" t="s">
         <v>118</v>
       </c>
@@ -1387,7 +1412,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="28">
+    <row r="10" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A10" s="11" t="s">
         <v>120</v>
       </c>
@@ -1400,7 +1425,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" s="11" t="s">
         <v>122</v>
       </c>
@@ -1413,7 +1438,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="28">
+    <row r="12" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A12" s="18" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1451,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="28">
+    <row r="13" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A13" s="18" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1464,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="28">
+    <row r="14" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A14" s="11" t="s">
         <v>132</v>
       </c>
@@ -1452,7 +1477,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="28">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15" s="11" t="s">
         <v>134</v>
       </c>
@@ -1465,7 +1490,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="28">
+    <row r="16" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A16" s="11" t="s">
         <v>136</v>
       </c>
@@ -1478,7 +1503,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="28">
+    <row r="17" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A17" s="11" t="s">
         <v>138</v>
       </c>
@@ -1490,7 +1515,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="28">
+    <row r="18" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A18" s="11" t="s">
         <v>140</v>
       </c>
@@ -1502,7 +1527,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="28">
+    <row r="19" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A19" s="18" t="s">
         <v>70</v>
       </c>
@@ -1514,7 +1539,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A20" s="11" t="s">
         <v>142</v>
       </c>
@@ -1526,55 +1551,55 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A21" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A22" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A23" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A25" s="18" t="s">
         <v>80</v>
       </c>
@@ -1586,7 +1611,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A26" s="18" t="s">
         <v>82</v>
       </c>
@@ -1598,7 +1623,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A27" s="18" t="s">
         <v>8</v>
       </c>
@@ -1610,19 +1635,19 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="42">
+    <row r="29" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A29" s="18" t="s">
         <v>15</v>
       </c>
@@ -1634,7 +1659,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="28">
+    <row r="30" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -1646,7 +1671,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="28">
+    <row r="31" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A31" s="11" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +1683,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="28">
+    <row r="32" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A32" s="11" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +1694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="42">
+    <row r="33" spans="1:4" ht="38.700000000000003" x14ac:dyDescent="0.6">
       <c r="A33" s="11" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1706,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A34" s="11" t="s">
         <v>170</v>
       </c>
@@ -1692,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A35" s="11" t="s">
         <v>173</v>
       </c>
@@ -1704,7 +1729,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" ht="28">
+    <row r="36" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A36" s="11" t="s">
         <v>177</v>
       </c>
@@ -1715,40 +1740,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="11" t="s">
+      <c r="C37" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A38" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="11" t="s">
+      <c r="C38" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A39" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -1759,7 +1784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A41" s="11" t="s">
         <v>46</v>
       </c>
@@ -1770,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1781,7 +1806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A43" s="11" t="s">
         <v>50</v>
       </c>
@@ -1792,95 +1817,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A44" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28">
-      <c r="A45" s="18" t="s">
+      <c r="C44" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A45" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="28">
-      <c r="A46" s="18" t="s">
+      <c r="C45" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="25.8" x14ac:dyDescent="0.6">
+      <c r="A46" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="11" t="s">
+      <c r="C46" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A47" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="11" t="s">
+      <c r="C47" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A48" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28">
-      <c r="A49" s="11" t="s">
+      <c r="C48" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
+      <c r="A49" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="11" t="s">
+      <c r="C49" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A50" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28">
-      <c r="A51" s="18" t="s">
+      <c r="C50" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
+      <c r="A51" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28">
+      <c r="C51" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A52" s="18" t="s">
         <v>66</v>
       </c>
@@ -1891,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A53" s="18" t="s">
         <v>68</v>
       </c>
@@ -1902,7 +1927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28">
+    <row r="54" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A54" s="11" t="s">
         <v>188</v>
       </c>
@@ -1913,7 +1938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28">
+    <row r="55" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A55" s="11" t="s">
         <v>190</v>
       </c>
@@ -1924,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A56" s="11" t="s">
         <v>194</v>
       </c>
@@ -1935,18 +1960,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
+      <c r="A57" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28">
+    <row r="58" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A58" s="20" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A59" s="18" t="s">
         <v>25</v>
       </c>
@@ -1968,7 +1993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A60" s="18" t="s">
         <v>181</v>
       </c>
@@ -1979,7 +2004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28">
+    <row r="61" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A61" s="20" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +2015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A62" s="22" t="s">
         <v>29</v>
       </c>
@@ -2013,16 +2038,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2035,7 +2060,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="28">
+    <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A2" s="18" t="s">
         <v>158</v>
       </c>
@@ -2047,7 +2072,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="28">
+    <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A3" s="20" t="s">
         <v>84</v>
       </c>
@@ -2059,7 +2084,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A4" s="20" t="s">
         <v>87</v>
       </c>
@@ -2071,7 +2096,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A5" s="20" t="s">
         <v>89</v>
       </c>
@@ -2083,7 +2108,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="28">
+    <row r="6" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
         <v>91</v>
       </c>
@@ -2095,7 +2120,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="28">
+    <row r="7" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A7" s="20" t="s">
         <v>93</v>
       </c>
@@ -2107,7 +2132,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A8" s="18" t="s">
         <v>95</v>
       </c>
@@ -2119,7 +2144,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="28">
+    <row r="9" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A9" s="18" t="s">
         <v>97</v>
       </c>
@@ -2131,7 +2156,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="28">
+    <row r="10" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A10" s="18" t="s">
         <v>99</v>
       </c>
@@ -2143,7 +2168,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="28">
+    <row r="11" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A11" s="18" t="s">
         <v>100</v>
       </c>
@@ -2154,7 +2179,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28">
+    <row r="12" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A12" s="18" t="s">
         <v>172</v>
       </c>
@@ -2165,7 +2190,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42">
+    <row r="13" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.6">
       <c r="A13" s="18" t="s">
         <v>196</v>
       </c>
@@ -2176,7 +2201,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42">
+    <row r="14" spans="1:5" ht="38.700000000000003" x14ac:dyDescent="0.6">
       <c r="A14" s="18" t="s">
         <v>198</v>
       </c>
@@ -2187,7 +2212,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28">
+    <row r="15" spans="1:5" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A15" s="18" t="s">
         <v>204</v>
       </c>
@@ -2210,16 +2235,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28">
+    <row r="2" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -2241,7 +2266,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
@@ -2252,7 +2277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
@@ -2263,7 +2288,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -2274,7 +2299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28">
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -2285,7 +2310,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28">
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -2296,7 +2321,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28">
+    <row r="8" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -2307,7 +2332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42">
+    <row r="9" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>124</v>
       </c>
@@ -2318,7 +2343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42">
+    <row r="10" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A10" s="7" t="s">
         <v>160</v>
       </c>
@@ -2329,7 +2354,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="70">
+    <row r="11" spans="1:3" ht="64.5" x14ac:dyDescent="0.6">
       <c r="A11" s="7" t="s">
         <v>162</v>
       </c>
@@ -2340,7 +2365,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42">
+    <row r="12" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A12" s="7" t="s">
         <v>164</v>
       </c>
@@ -2351,7 +2376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42">
+    <row r="13" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>166</v>
       </c>
@@ -2362,7 +2387,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42">
+    <row r="14" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -2373,7 +2398,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42">
+    <row r="15" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
@@ -2384,7 +2409,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="42">
+    <row r="16" spans="1:3" ht="38.700000000000003" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>182</v>
       </c>
@@ -2395,7 +2420,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="42">
+    <row r="17" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>184</v>
       </c>
@@ -2406,7 +2431,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="42">
+    <row r="18" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>200</v>
       </c>
@@ -2417,7 +2442,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42">
+    <row r="19" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A19" s="1" t="s">
         <v>202</v>
       </c>
@@ -2440,16 +2465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42">
+    <row r="2" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
@@ -2471,7 +2496,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="70">
+    <row r="3" spans="1:3" ht="64.5" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -2482,7 +2507,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42">
+    <row r="4" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
@@ -2493,7 +2518,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="56">
+    <row r="5" spans="1:3" ht="38.700000000000003" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -2504,7 +2529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42">
+    <row r="6" spans="1:3" ht="38.700000000000003" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>156</v>
       </c>
@@ -2515,7 +2540,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="84">
+    <row r="7" spans="1:3" ht="64.5" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>179</v>
       </c>
@@ -2526,7 +2551,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="98">
+    <row r="8" spans="1:3" ht="77.400000000000006" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>192</v>
       </c>
@@ -2548,21 +2573,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="48.1484375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2573,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -2584,7 +2609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>70</v>
       </c>
@@ -2599,7 +2624,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
         <v>80</v>
       </c>
@@ -2610,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="18" t="s">
         <v>82</v>
       </c>
@@ -2621,7 +2646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -2632,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
@@ -2643,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
@@ -2654,7 +2679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" s="11" t="s">
         <v>48</v>
       </c>
@@ -2665,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
@@ -2676,7 +2701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" s="11" t="s">
         <v>31</v>
       </c>
@@ -2687,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" s="11" t="s">
         <v>64</v>
       </c>
@@ -2698,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13" s="11" t="s">
         <v>66</v>
       </c>
@@ -2709,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -2720,7 +2745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28">
+    <row r="15" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A15" s="16" t="s">
         <v>10</v>
       </c>
@@ -2731,7 +2756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
@@ -2742,7 +2767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="11" t="s">
         <v>181</v>
       </c>
@@ -2753,7 +2778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28">
+    <row r="18" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A18" s="16" t="s">
         <v>27</v>
       </c>
@@ -2764,12 +2789,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="17"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:3" ht="28">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="18" t="s">
         <v>158</v>
       </c>
@@ -2780,7 +2805,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="20" t="s">
         <v>84</v>
       </c>
@@ -2791,7 +2816,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="20" t="s">
         <v>87</v>
       </c>
@@ -2802,7 +2827,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="20" t="s">
         <v>89</v>
       </c>
@@ -2813,7 +2838,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="18" t="s">
         <v>91</v>
       </c>
@@ -2824,7 +2849,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="20" t="s">
         <v>93</v>
       </c>
@@ -2835,7 +2860,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28">
+    <row r="26" spans="1:3" ht="25.8" x14ac:dyDescent="0.6">
       <c r="A26" s="18" t="s">
         <v>95</v>
       </c>
@@ -2846,7 +2871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="18" t="s">
         <v>97</v>
       </c>
@@ -2857,7 +2882,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="18" t="s">
         <v>99</v>
       </c>
@@ -2868,7 +2893,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="18" t="s">
         <v>100</v>
       </c>
@@ -2879,7 +2904,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="18" t="s">
         <v>172</v>
       </c>
@@ -2890,7 +2915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="18" t="s">
         <v>196</v>
       </c>
@@ -2901,7 +2926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="18" t="s">
         <v>198</v>
       </c>
@@ -2912,7 +2937,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="18" t="s">
         <v>204</v>
       </c>
@@ -2923,7 +2948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
@@ -2934,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" s="11" t="s">
         <v>106</v>
       </c>
@@ -2945,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="11" t="s">
         <v>108</v>
       </c>
